--- a/Readme_LaurenGao_20190430.xlsx
+++ b/Readme_LaurenGao_20190430.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB72093-CF5C-4B8A-9923-0F5974AFB3FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report_English" sheetId="1" r:id="rId1"/>
@@ -688,29 +689,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line 35：可以是2018.2，但2018.2.1不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置DCP状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line 36：
-1：综合或opt_design之后的DCP
-2：布局或物理优化后的DCP（这里的物理优化是布局之后执行的）
-3：布线或物理优化后的DCP（这里的物理优化是布线之后执行的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置DCP文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line 38：如果DCP未打开需要设置此值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置工作模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,10 +705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若line 39设置为1，则需要设置line 49 -&gt; line 74相应变量，1表示执行，0表示不执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将待分析的DCP和两个.tcl文件放置在同一目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,13 +737,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line 37：
+    <t>DCP files and these two Tcl files should be placed into the same folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install Design Utilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Vivado, Tools-&gt; Xilinx Tcl Store -&gt; Design Utilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set Vivado version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the type of DCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the status of DCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the name of DCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set work mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set 'enable items'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if the variable in line 39 is 1, variables ranging from line 49 to line 74 should be 
+given 1 or 0. ('1' : enabled, '0': disabled)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch current work directory to the folder your DCP located</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For example: cd {C:/data}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analyze produced reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A folder 'Report' will be created. All reports are located in it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timing Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_ram_utilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM utilization report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S26_ram_util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM资源利用率分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 37：可以是2018.2，但2018.2.1不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 38：
+1：synth_design生成的DCP
+2：opt_design生成的DCP
+3：place_design生成的DCP
+4：phys_opt_design (after place_design)生成的DCP
+5：route_deisng生成的DCP
+6：phys_opt_design (after route_deisng)生成的DCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 39：
 1：DCP已经打开 （跳至步骤7）
 0：DCP未打开（跳至步骤6）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line 39：
+    <t>line 41：
 1：用户自定义模式 （跳至步骤8）
 2：Baseline模式 
 （Report_Chinese中对应第一列标记为Baseline的条目被执行跳至步骤9）
@@ -769,136 +862,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DCP files and these two Tcl files should be placed into the same folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Install Design Utilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Vivado, Tools-&gt; Xilinx Tcl Store -&gt; Design Utilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set Vivado version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 35：format xxxx.x, so 2018.2 is acceptable，2018.2.1 is illegal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set the type of DCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 36：
-1：post-syn, post-opt
-2：post-place, post-phys_opt (phys_opt_design following place_design)
-3：post-route, post-phys_opt (phys_opt_design following route_design)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set the status of DCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 37：
+    <t>若line 41设置为1，则需要设置line 51 -&gt; line 76相应变量，1表示执行，0表示不执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 37：format xxxx.x, so 2018.2 is acceptable，2018.2.1 is illegal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 38：
+1：post-syn
+2 : post-opt
+3：post-place
+4 : post-phys_opt (phys_opt_design following place_design)
+5：post-route
+6 :  post-phys_opt (phys_opt_design following route_design)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 39：
 1：DCP is open （Go to Step 7）
 0：DCP is closed（Go to Step 6）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Set the name of DCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 38：if the DCP is not open, this variable should be given a specific value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set work mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 39：
+    <t>line 40：如果DCP未打开需要设置此值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 40：if the DCP is not open, this variable should be given a specific value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 41：
 1：user-defined mode （Go to Step 8）
 2：Baseline mode
 （Items with the first column marked 'Baseline' in Report_English will be executed, go to Step 9)
 3：full mode（Go to Step 9）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Set 'enable items'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if the variable in line 39 is 1, variables ranging from line 49 to line 74 should be 
-given 1 or 0. ('1' : enabled, '0': disabled)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch current work directory to the folder your DCP located</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For example: cd {C:/data}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analyze produced reports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A folder 'Report' will be created. All reports are located in it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timing Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section 26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report_ram_utilization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAM utilization report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S26_ram_util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAM资源利用率分析报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1822,7 +1829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2361,16 +2368,16 @@
         <v>152</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2398,11 +2405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2417,10 +2424,10 @@
         <v>155</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2439,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2450,21 +2457,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="55.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2472,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,10 +2490,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="91.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,10 +2501,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,10 +2512,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,10 +2523,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2527,10 +2534,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,10 +2545,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2567,10 +2574,10 @@
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B2" s="44" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
@@ -2591,10 +2598,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -3130,16 +3137,16 @@
         <v>152</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3167,11 +3174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3197,10 +3204,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3222,10 +3229,10 @@
         <v>160</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="101.5" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -3233,7 +3240,7 @@
         <v>161</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="55.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3241,10 +3248,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3252,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="91.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3263,10 +3270,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3285,10 +3292,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,10 +3303,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,14 +3314,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>